--- a/TestsResultsEgor/DC_DC.xlsx
+++ b/TestsResultsEgor/DC_DC.xlsx
@@ -8224,8 +8224,8 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100270862DD4EDAC94A88F48ED2095CA473" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="e15a59ff4ed2e17e32d8a676e7775c09">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2bbfcddc-9728-4227-8e06-a5558deb0e17" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="8ffd101607fb2a8e5b465f07dec1ffc6" ns2:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100270862DD4EDAC94A88F48ED2095CA473" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2d8336fb09fe95d48c66b40bf5ced7df">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="2bbfcddc-9728-4227-8e06-a5558deb0e17" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="377de24935a776123db0216d0d3e57ea" ns2:_="">
     <xsd:import namespace="2bbfcddc-9728-4227-8e06-a5558deb0e17"/>
     <xsd:element name="properties">
       <xsd:complexType>
@@ -8403,7 +8403,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4B0E96D7-FCFA-402D-A950-F2AC5317FABE}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{96A001CC-634B-443C-B9A4-024F271BC270}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
